--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -522,52 +522,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>35.70889233333333</v>
+        <v>0.008791666666666666</v>
       </c>
       <c r="H2">
-        <v>107.126677</v>
+        <v>0.026375</v>
       </c>
       <c r="I2">
-        <v>0.2383893603686217</v>
+        <v>6.529429601061531E-05</v>
       </c>
       <c r="J2">
-        <v>0.2383893603686217</v>
+        <v>6.529429601061531E-05</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>35.70889233333333</v>
+        <v>0.008791666666666666</v>
       </c>
       <c r="N2">
-        <v>107.126677</v>
+        <v>0.026375</v>
       </c>
       <c r="O2">
-        <v>0.2383893603686217</v>
+        <v>6.529429601061531E-05</v>
       </c>
       <c r="P2">
-        <v>0.2383893603686217</v>
+        <v>6.529429601061531E-05</v>
       </c>
       <c r="Q2">
-        <v>1275.124991673592</v>
+        <v>7.729340277777777E-05</v>
       </c>
       <c r="R2">
-        <v>11476.12492506233</v>
+        <v>0.000695640625</v>
       </c>
       <c r="S2">
-        <v>0.05682948713696057</v>
+        <v>4.263345091521855E-09</v>
       </c>
       <c r="T2">
-        <v>0.0568294871369606</v>
+        <v>4.263345091521855E-09</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,22 +584,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>35.70889233333333</v>
+        <v>0.008791666666666666</v>
       </c>
       <c r="H3">
-        <v>107.126677</v>
+        <v>0.026375</v>
       </c>
       <c r="I3">
-        <v>0.2383893603686217</v>
+        <v>6.529429601061531E-05</v>
       </c>
       <c r="J3">
-        <v>0.2383893603686217</v>
+        <v>6.529429601061531E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -608,28 +608,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>114.083415</v>
+        <v>134.6379876666666</v>
       </c>
       <c r="N3">
-        <v>342.2502449999999</v>
+        <v>403.913963</v>
       </c>
       <c r="O3">
-        <v>0.7616106396313783</v>
+        <v>0.9999347057039893</v>
       </c>
       <c r="P3">
-        <v>0.7616106396313783</v>
+        <v>0.9999347057039895</v>
       </c>
       <c r="Q3">
-        <v>4073.792383253985</v>
+        <v>1.183692308236111</v>
       </c>
       <c r="R3">
-        <v>36664.13144928586</v>
+        <v>10.653230774125</v>
       </c>
       <c r="S3">
-        <v>0.1815598732316611</v>
+        <v>6.529003266552379E-05</v>
       </c>
       <c r="T3">
-        <v>0.1815598732316611</v>
+        <v>6.52900326655238E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,46 +652,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>114.083415</v>
+        <v>134.6379876666666</v>
       </c>
       <c r="H4">
-        <v>342.2502449999999</v>
+        <v>403.913963</v>
       </c>
       <c r="I4">
-        <v>0.7616106396313783</v>
+        <v>0.9999347057039893</v>
       </c>
       <c r="J4">
-        <v>0.7616106396313783</v>
+        <v>0.9999347057039895</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>35.70889233333333</v>
+        <v>0.008791666666666666</v>
       </c>
       <c r="N4">
-        <v>107.126677</v>
+        <v>0.026375</v>
       </c>
       <c r="O4">
-        <v>0.2383893603686217</v>
+        <v>6.529429601061531E-05</v>
       </c>
       <c r="P4">
-        <v>0.2383893603686217</v>
+        <v>6.529429601061531E-05</v>
       </c>
       <c r="Q4">
-        <v>4073.792383253985</v>
+        <v>1.183692308236111</v>
       </c>
       <c r="R4">
-        <v>36664.13144928586</v>
+        <v>10.653230774125</v>
       </c>
       <c r="S4">
-        <v>0.1815598732316611</v>
+        <v>6.529003266552379E-05</v>
       </c>
       <c r="T4">
-        <v>0.1815598732316611</v>
+        <v>6.52900326655238E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,16 +714,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.083415</v>
+        <v>134.6379876666666</v>
       </c>
       <c r="H5">
-        <v>342.2502449999999</v>
+        <v>403.913963</v>
       </c>
       <c r="I5">
-        <v>0.7616106396313783</v>
+        <v>0.9999347057039893</v>
       </c>
       <c r="J5">
-        <v>0.7616106396313783</v>
+        <v>0.9999347057039895</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -732,28 +732,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.083415</v>
+        <v>134.6379876666666</v>
       </c>
       <c r="N5">
-        <v>342.2502449999999</v>
+        <v>403.913963</v>
       </c>
       <c r="O5">
-        <v>0.7616106396313783</v>
+        <v>0.9999347057039893</v>
       </c>
       <c r="P5">
-        <v>0.7616106396313783</v>
+        <v>0.9999347057039895</v>
       </c>
       <c r="Q5">
-        <v>13015.02557806222</v>
+        <v>18127.38772292948</v>
       </c>
       <c r="R5">
-        <v>117135.23020256</v>
+        <v>163146.4895063654</v>
       </c>
       <c r="S5">
-        <v>0.5800507663997172</v>
+        <v>0.9998694156713238</v>
       </c>
       <c r="T5">
-        <v>0.5800507663997172</v>
+        <v>0.999869415671324</v>
       </c>
     </row>
   </sheetData>
